--- a/posesiones/1381287.xlsx
+++ b/posesiones/1381287.xlsx
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>22</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>12</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>23</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>13</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>9</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>25</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>9</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>16</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R27">
         <v>28</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>26</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>28</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R44">
         <v>6</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47">
         <v>14</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R49">
         <v>9</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>6</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57">
         <v>9</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R59">
         <v>7</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>18</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>13</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>5</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>30</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>25</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>22</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>23</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R94">
         <v>36</v>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R95">
         <v>18</v>
@@ -6401,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>23</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R104">
         <v>14</v>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R109">
         <v>23</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R113">
         <v>7</v>
@@ -7268,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7406,10 +7406,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R118">
         <v>22</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R120">
         <v>14</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R126">
         <v>13</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R128">
         <v>8</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R135">
         <v>35</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R141">
         <v>19</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R146">
         <v>22</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R151">
         <v>7</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9155,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R153">
         <v>14</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R155">
         <v>19</v>
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R156">
         <v>25</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R158">
         <v>17</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R160">
         <v>18</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9611,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R162">
         <v>12</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R172">
         <v>25</v>
@@ -10140,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R173">
         <v>10</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R175">
         <v>18</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R177">
         <v>18</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R181">
         <v>7</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R182">
         <v>10</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R184">
         <v>5</v>
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10978,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R190">
         <v>12</v>
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R191">
         <v>14</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11184,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R194">
         <v>24</v>
@@ -11234,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>20</v>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R198">
         <v>5</v>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11487,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R200">
         <v>5</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R202">
         <v>19</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12019,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R215">
         <v>33</v>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R221">
         <v>29</v>
@@ -12542,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R222">
         <v>12</v>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R225">
         <v>11</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12786,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12977,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R231">
         <v>17</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R233">
         <v>6</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R235">
         <v>6</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R238">
         <v>0</v>
@@ -13380,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>12</v>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R242">
         <v>17</v>
@@ -13574,10 +13574,10 @@
         <v>1</v>
       </c>
       <c r="P243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13906,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -13994,10 +13994,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R253">
         <v>19</v>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R254">
         <v>15</v>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14294,7 +14294,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R258">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14488,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R262">
         <v>18</v>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R265">
         <v>33</v>
@@ -14688,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R266">
         <v>12</v>
@@ -14738,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R269">
         <v>11</v>
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14935,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R271">
         <v>14</v>
@@ -14988,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R272">
         <v>13</v>
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R273">
         <v>14</v>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15144,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R275">
         <v>17</v>
@@ -15197,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R276">
         <v>14</v>
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15391,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15488,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R282">
         <v>21</v>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>22</v>
@@ -15641,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R285">
         <v>14</v>
@@ -15691,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R287">
         <v>14</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R289">
         <v>5</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16032,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16358,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16408,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R301">
         <v>46</v>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16602,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R305">
         <v>5</v>
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16899,7 +16899,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R311">
         <v>0</v>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R315">
         <v>24</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R317">
         <v>7</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17346,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R321">
         <v>26</v>
@@ -17449,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R322">
         <v>18</v>
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17552,7 +17552,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R324">
         <v>22</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17649,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17837,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18169,7 +18169,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R337">
         <v>39</v>
@@ -18222,7 +18222,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R338">
         <v>11</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R339">
         <v>14</v>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18472,7 +18472,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R343">
         <v>28</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18569,7 +18569,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18760,7 +18760,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R349">
         <v>15</v>
@@ -18813,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R350">
         <v>17</v>
@@ -18866,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R351">
         <v>16</v>
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18966,7 +18966,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R353">
         <v>9</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19116,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R356">
         <v>5</v>
@@ -19166,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19216,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R358">
         <v>6</v>
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R362">
         <v>22</v>
@@ -19466,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R363">
         <v>12</v>
@@ -19522,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R364">
         <v>0</v>
@@ -19566,10 +19566,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19663,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19798,10 +19798,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19895,7 +19895,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19945,7 +19945,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R373">
         <v>22</v>
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R375">
         <v>9</v>
@@ -20098,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20198,7 +20198,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R378">
         <v>17</v>
@@ -20251,7 +20251,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R379">
         <v>16</v>
@@ -20301,7 +20301,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20351,7 +20351,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>24</v>
@@ -20401,7 +20401,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20445,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20589,7 +20589,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R386">
         <v>25</v>
@@ -20639,7 +20639,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20689,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R388">
         <v>13</v>
@@ -20742,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20789,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20883,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R395">
         <v>14</v>
@@ -21080,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21130,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R397">
         <v>19</v>
@@ -21180,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21277,7 +21277,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21421,7 +21421,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R403">
         <v>20</v>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21524,7 +21524,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R405">
         <v>17</v>
@@ -21577,7 +21577,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R406">
         <v>20</v>
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21677,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R408">
         <v>18</v>
@@ -21730,7 +21730,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R409">
         <v>14</v>
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21921,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22018,7 +22018,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>24</v>
@@ -22068,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22115,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R419">
         <v>18</v>
@@ -22268,7 +22268,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22318,7 +22318,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R421">
         <v>23</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22606,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22656,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R428">
         <v>24</v>
@@ -22706,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22800,7 +22800,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22944,7 +22944,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R434">
         <v>13</v>
@@ -22997,7 +22997,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R435">
         <v>22</v>
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23100,7 +23100,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R437">
         <v>5</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23200,7 +23200,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R439">
         <v>10</v>
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23303,7 +23303,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R441">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R443">
         <v>17</v>
@@ -23459,7 +23459,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>12</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23559,7 +23559,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>7</v>
@@ -23612,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R447">
         <v>6</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R450">
         <v>0</v>
@@ -23812,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23859,7 +23859,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23906,7 +23906,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24000,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24050,7 +24050,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R456">
         <v>1</v>
@@ -24100,7 +24100,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24150,7 +24150,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R458">
         <v>14</v>
@@ -24200,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24435,7 +24435,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24482,7 +24482,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24529,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24673,7 +24673,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R469">
         <v>38</v>
@@ -24723,7 +24723,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24773,7 +24773,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>23</v>
@@ -24826,7 +24826,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R472">
         <v>25</v>
@@ -24876,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24976,7 +24976,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>18</v>
@@ -25026,7 +25026,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25073,7 +25073,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25170,7 +25170,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R479">
         <v>17</v>
@@ -25214,10 +25214,10 @@
         <v>1</v>
       </c>
       <c r="P480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q480">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="481" spans="1:17">
@@ -25258,7 +25258,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
